--- a/_Out/Server/NFDataCfg/Excel_Ini/Shop.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Shop.xlsx
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Iron</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Stone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,6 +228,10 @@
   </si>
   <si>
     <t>Item27</t>
+  </si>
+  <si>
+    <t>Steel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -349,7 +349,7 @@
     <tableColumn id="5" uniqueName="KillMonsterName" name="Gold">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@KillMonsterName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="KillCount" name="Iron">
+    <tableColumn id="6" uniqueName="KillCount" name="Steel">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@KillCount" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="7" uniqueName="LevelReq" name="Stone">
@@ -632,7 +632,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -660,30 +660,30 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -700,16 +700,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -726,16 +726,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -752,16 +752,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -778,16 +778,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -804,16 +804,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -830,16 +830,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -856,16 +856,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -882,16 +882,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -908,16 +908,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -934,16 +934,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -960,16 +960,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -986,16 +986,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1012,16 +1012,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1038,16 +1038,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1064,16 +1064,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1090,16 +1090,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1116,16 +1116,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1142,16 +1142,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1168,16 +1168,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1194,16 +1194,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1220,16 +1220,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1246,16 +1246,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1272,16 +1272,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1298,16 +1298,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1324,16 +1324,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1350,16 +1350,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28">
         <v>1</v>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Shop.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Shop.xlsx
@@ -27,211 +27,388 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="123">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ItemID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop4</t>
+  </si>
+  <si>
+    <t>Shop5</t>
+  </si>
+  <si>
+    <t>Shop6</t>
+  </si>
+  <si>
+    <t>Shop7</t>
+  </si>
+  <si>
+    <t>Shop8</t>
+  </si>
+  <si>
+    <t>Shop9</t>
+  </si>
+  <si>
+    <t>Shop10</t>
+  </si>
+  <si>
+    <t>Shop11</t>
+  </si>
+  <si>
+    <t>Shop12</t>
+  </si>
+  <si>
+    <t>Shop13</t>
+  </si>
+  <si>
+    <t>Shop14</t>
+  </si>
+  <si>
+    <t>Shop15</t>
+  </si>
+  <si>
+    <t>Shop16</t>
+  </si>
+  <si>
+    <t>Shop17</t>
+  </si>
+  <si>
+    <t>Shop18</t>
+  </si>
+  <si>
+    <t>Shop19</t>
+  </si>
+  <si>
+    <t>Shop20</t>
+  </si>
+  <si>
+    <t>Shop21</t>
+  </si>
+  <si>
+    <t>Shop22</t>
+  </si>
+  <si>
+    <t>Shop23</t>
+  </si>
+  <si>
+    <t>Shop24</t>
+  </si>
+  <si>
+    <t>Shop25</t>
+  </si>
+  <si>
+    <t>Shop26</t>
+  </si>
+  <si>
+    <t>Shop27</t>
+  </si>
+  <si>
+    <t>Item1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item2</t>
+  </si>
+  <si>
+    <t>Item3</t>
+  </si>
+  <si>
+    <t>Item4</t>
+  </si>
+  <si>
+    <t>Item5</t>
+  </si>
+  <si>
+    <t>Item6</t>
+  </si>
+  <si>
+    <t>Item7</t>
+  </si>
+  <si>
+    <t>Item8</t>
+  </si>
+  <si>
+    <t>Item9</t>
+  </si>
+  <si>
+    <t>Item10</t>
+  </si>
+  <si>
+    <t>Item11</t>
+  </si>
+  <si>
+    <t>Item12</t>
+  </si>
+  <si>
+    <t>Item13</t>
+  </si>
+  <si>
+    <t>Item14</t>
+  </si>
+  <si>
+    <t>Item15</t>
+  </si>
+  <si>
+    <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
+  </si>
+  <si>
+    <t>Item18</t>
+  </si>
+  <si>
+    <t>Item19</t>
+  </si>
+  <si>
+    <t>Item20</t>
+  </si>
+  <si>
+    <t>Item21</t>
+  </si>
+  <si>
+    <t>Item22</t>
+  </si>
+  <si>
+    <t>Item23</t>
+  </si>
+  <si>
+    <t>Item24</t>
+  </si>
+  <si>
+    <t>Item25</t>
+  </si>
+  <si>
+    <t>Item26</t>
+  </si>
+  <si>
+    <t>Item27</t>
+  </si>
+  <si>
+    <t>Steel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ItemID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Diamond</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shop4</t>
-  </si>
-  <si>
-    <t>Shop5</t>
-  </si>
-  <si>
-    <t>Shop6</t>
-  </si>
-  <si>
-    <t>Shop7</t>
-  </si>
-  <si>
-    <t>Shop8</t>
-  </si>
-  <si>
-    <t>Shop9</t>
-  </si>
-  <si>
-    <t>Shop10</t>
-  </si>
-  <si>
-    <t>Shop11</t>
-  </si>
-  <si>
-    <t>Shop12</t>
-  </si>
-  <si>
-    <t>Shop13</t>
-  </si>
-  <si>
-    <t>Shop14</t>
-  </si>
-  <si>
-    <t>Shop15</t>
-  </si>
-  <si>
-    <t>Shop16</t>
-  </si>
-  <si>
-    <t>Shop17</t>
-  </si>
-  <si>
-    <t>Shop18</t>
-  </si>
-  <si>
-    <t>Shop19</t>
-  </si>
-  <si>
-    <t>Shop20</t>
-  </si>
-  <si>
-    <t>Shop21</t>
-  </si>
-  <si>
-    <t>Shop22</t>
-  </si>
-  <si>
-    <t>Shop23</t>
-  </si>
-  <si>
-    <t>Shop24</t>
-  </si>
-  <si>
-    <t>Shop25</t>
-  </si>
-  <si>
-    <t>Shop26</t>
-  </si>
-  <si>
-    <t>Shop27</t>
-  </si>
-  <si>
-    <t>Item1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item2</t>
-  </si>
-  <si>
-    <t>Item3</t>
-  </si>
-  <si>
-    <t>Item4</t>
-  </si>
-  <si>
-    <t>Item5</t>
-  </si>
-  <si>
-    <t>Item6</t>
-  </si>
-  <si>
-    <t>Item7</t>
-  </si>
-  <si>
-    <t>Item8</t>
-  </si>
-  <si>
-    <t>Item9</t>
-  </si>
-  <si>
-    <t>Item10</t>
-  </si>
-  <si>
-    <t>Item11</t>
-  </si>
-  <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
-  </si>
-  <si>
-    <t>Item14</t>
-  </si>
-  <si>
-    <t>Item15</t>
-  </si>
-  <si>
-    <t>Item16</t>
-  </si>
-  <si>
-    <t>Item17</t>
-  </si>
-  <si>
-    <t>Item18</t>
-  </si>
-  <si>
-    <t>Item19</t>
-  </si>
-  <si>
-    <t>Item20</t>
-  </si>
-  <si>
-    <t>Item21</t>
-  </si>
-  <si>
-    <t>Item22</t>
-  </si>
-  <si>
-    <t>Item23</t>
-  </si>
-  <si>
-    <t>Item24</t>
-  </si>
-  <si>
-    <t>Item25</t>
-  </si>
-  <si>
-    <t>Item26</t>
-  </si>
-  <si>
-    <t>Item27</t>
-  </si>
-  <si>
-    <t>Steel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Shop28</t>
+  </si>
+  <si>
+    <t>Shop29</t>
+  </si>
+  <si>
+    <t>Shop30</t>
+  </si>
+  <si>
+    <t>Shop31</t>
+  </si>
+  <si>
+    <t>Shop32</t>
+  </si>
+  <si>
+    <t>Shop33</t>
+  </si>
+  <si>
+    <t>Shop34</t>
+  </si>
+  <si>
+    <t>Shop35</t>
+  </si>
+  <si>
+    <t>Shop36</t>
+  </si>
+  <si>
+    <t>Shop37</t>
+  </si>
+  <si>
+    <t>Shop38</t>
+  </si>
+  <si>
+    <t>Item28</t>
+  </si>
+  <si>
+    <t>Item29</t>
+  </si>
+  <si>
+    <t>Item30</t>
+  </si>
+  <si>
+    <t>Item31</t>
+  </si>
+  <si>
+    <t>Item32</t>
+  </si>
+  <si>
+    <t>Item33</t>
+  </si>
+  <si>
+    <t>Item34</t>
+  </si>
+  <si>
+    <t>Item35</t>
+  </si>
+  <si>
+    <t>Item36</t>
+  </si>
+  <si>
+    <t>Item37</t>
+  </si>
+  <si>
+    <t>Item38</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
   </si>
 </sst>
 </file>
@@ -288,7 +465,20 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -334,8 +524,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H28" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:H28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H40" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:H40"/>
   <tableColumns count="8">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@ID" xmlDataType="string"/>
@@ -349,16 +539,16 @@
     <tableColumn id="5" uniqueName="KillMonsterName" name="Gold">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@KillMonsterName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="KillCount" name="Steel">
+    <tableColumn id="6" uniqueName="KillCount" name="Steel" dataDxfId="3">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@KillCount" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="LevelReq" name="Stone">
+    <tableColumn id="7" uniqueName="LevelReq" name="Stone" dataDxfId="2">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@LevelReq" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="AwardExp" name="Diamond">
+    <tableColumn id="8" uniqueName="AwardExp" name="Diamond" dataDxfId="1">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@AwardExp" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="AwardGold" name="Level">
+    <tableColumn id="9" uniqueName="AwardGold" name="Level" dataDxfId="0">
       <xmlColumnPr mapId="1" xpath="/XML/Object/@AwardGold" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -629,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H2" sqref="H2:H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -651,727 +841,1039 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>100</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>200</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>300</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>400</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>500</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>600</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
+        <v>89</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>700</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <v>800</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
+        <v>91</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <v>900</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
+        <v>92</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>1000</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>11</v>
-      </c>
-      <c r="G12">
-        <v>1100</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>12</v>
-      </c>
-      <c r="G13">
-        <v>1200</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>13</v>
-      </c>
-      <c r="G14">
-        <v>1300</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>14</v>
-      </c>
-      <c r="G15">
-        <v>1400</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
+        <v>97</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>15</v>
-      </c>
-      <c r="G16">
-        <v>1500</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
+        <v>98</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>16</v>
-      </c>
-      <c r="G17">
-        <v>1600</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>17</v>
-      </c>
-      <c r="G18">
-        <v>1700</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>18</v>
-      </c>
-      <c r="G19">
-        <v>1800</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>19</v>
-      </c>
-      <c r="G20">
-        <v>1900</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>20</v>
-      </c>
-      <c r="G21">
-        <v>2000</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>21</v>
-      </c>
-      <c r="G22">
-        <v>2100</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>22</v>
-      </c>
-      <c r="G23">
-        <v>2200</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>23</v>
-      </c>
-      <c r="G24">
-        <v>2300</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>24</v>
-      </c>
-      <c r="G25">
-        <v>2400</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>25</v>
-      </c>
-      <c r="G26">
-        <v>2500</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>26</v>
-      </c>
-      <c r="G27">
-        <v>2600</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>27</v>
-      </c>
-      <c r="G28">
-        <v>2700</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Shop.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Shop.xlsx
@@ -1,258 +1,233 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12375" windowHeight="7905"/>
+    <workbookView windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
+  <extLst/>
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Task" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Task.xml" htmlTables="1" htmlFormat="all"/>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ItemID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steel</t>
   </si>
   <si>
     <t>Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Diamond</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Shop1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build1</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>Shop2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build2</t>
   </si>
   <si>
     <t>Shop3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build3</t>
   </si>
   <si>
     <t>Shop4</t>
   </si>
   <si>
+    <t>Build4</t>
+  </si>
+  <si>
     <t>Shop5</t>
   </si>
   <si>
+    <t>Build5</t>
+  </si>
+  <si>
     <t>Shop6</t>
   </si>
   <si>
+    <t>Build6</t>
+  </si>
+  <si>
     <t>Shop7</t>
   </si>
   <si>
+    <t>Build7</t>
+  </si>
+  <si>
     <t>Shop8</t>
   </si>
   <si>
+    <t>Build8</t>
+  </si>
+  <si>
     <t>Shop9</t>
   </si>
   <si>
+    <t>Build9</t>
+  </si>
+  <si>
     <t>Shop10</t>
   </si>
   <si>
+    <t>Build10</t>
+  </si>
+  <si>
     <t>Shop11</t>
   </si>
   <si>
+    <t>Build11</t>
+  </si>
+  <si>
     <t>Shop12</t>
   </si>
   <si>
+    <t>Build12</t>
+  </si>
+  <si>
     <t>Shop13</t>
   </si>
   <si>
+    <t>Build13</t>
+  </si>
+  <si>
     <t>Shop14</t>
   </si>
   <si>
+    <t>Build14</t>
+  </si>
+  <si>
     <t>Shop15</t>
   </si>
   <si>
+    <t>Build15</t>
+  </si>
+  <si>
     <t>Shop16</t>
   </si>
   <si>
+    <t>Build16</t>
+  </si>
+  <si>
     <t>Shop17</t>
   </si>
   <si>
+    <t>Build17</t>
+  </si>
+  <si>
     <t>Shop18</t>
   </si>
   <si>
+    <t>Build18</t>
+  </si>
+  <si>
     <t>Shop19</t>
   </si>
   <si>
+    <t>Build19</t>
+  </si>
+  <si>
     <t>Shop20</t>
   </si>
   <si>
+    <t>Build20</t>
+  </si>
+  <si>
     <t>Shop21</t>
   </si>
   <si>
+    <t>Build21</t>
+  </si>
+  <si>
     <t>Shop22</t>
   </si>
   <si>
+    <t>Build22</t>
+  </si>
+  <si>
     <t>Shop23</t>
   </si>
   <si>
+    <t>Build23</t>
+  </si>
+  <si>
     <t>Shop24</t>
   </si>
   <si>
+    <t>Build24</t>
+  </si>
+  <si>
     <t>Shop25</t>
   </si>
   <si>
+    <t>Build25</t>
+  </si>
+  <si>
     <t>Shop26</t>
   </si>
   <si>
+    <t>Build26</t>
+  </si>
+  <si>
     <t>Shop27</t>
   </si>
   <si>
-    <t>Item1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item2</t>
-  </si>
-  <si>
-    <t>Item3</t>
-  </si>
-  <si>
-    <t>Item4</t>
-  </si>
-  <si>
-    <t>Item5</t>
-  </si>
-  <si>
-    <t>Item6</t>
-  </si>
-  <si>
-    <t>Item7</t>
-  </si>
-  <si>
-    <t>Item8</t>
-  </si>
-  <si>
-    <t>Item9</t>
-  </si>
-  <si>
-    <t>Item10</t>
-  </si>
-  <si>
-    <t>Item11</t>
-  </si>
-  <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
-  </si>
-  <si>
-    <t>Item14</t>
-  </si>
-  <si>
-    <t>Item15</t>
-  </si>
-  <si>
-    <t>Item16</t>
-  </si>
-  <si>
-    <t>Item17</t>
-  </si>
-  <si>
-    <t>Item18</t>
-  </si>
-  <si>
-    <t>Item19</t>
-  </si>
-  <si>
-    <t>Item20</t>
-  </si>
-  <si>
-    <t>Item21</t>
-  </si>
-  <si>
-    <t>Item22</t>
-  </si>
-  <si>
-    <t>Item23</t>
-  </si>
-  <si>
-    <t>Item24</t>
-  </si>
-  <si>
-    <t>Item25</t>
-  </si>
-  <si>
-    <t>Item26</t>
-  </si>
-  <si>
-    <t>Item27</t>
-  </si>
-  <si>
-    <t>Steel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Build27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -272,8 +247,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -285,89 +275,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
-<MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema1">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="XML">
-        <xsd:complexType>
-          <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Object" form="unqualified">
-              <xsd:complexType>
-                <xsd:attribute name="ID" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="TaskName" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="Type" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="NextTaskID" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="KillMonsterName" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="KillCount" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="LevelReq" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="AwardExp" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="AwardGold" form="unqualified" type="xsd:integer"/>
-                <xsd:attribute name="AwardPack" form="unqualified" type="xsd:string"/>
-              </xsd:complexType>
-            </xsd:element>
-          </xsd:sequence>
-        </xsd:complexType>
-      </xsd:element>
-    </xsd:schema>
-  </Schema>
-  <Map ID="1" Name="XML_映射" RootElement="XML" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
-  </Map>
-</MapInfo>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:H28" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:H28"/>
-  <tableColumns count="8">
-    <tableColumn id="1" uniqueName="ID" name="ID">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@ID" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="3" uniqueName="Type" name="Type">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@Type" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="4" uniqueName="NextTaskID" name="ItemID">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@NextTaskID" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="5" uniqueName="KillMonsterName" name="Gold">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@KillMonsterName" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="6" uniqueName="KillCount" name="Steel">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@KillCount" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="7" uniqueName="LevelReq" name="Stone">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@LevelReq" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="8" uniqueName="AwardExp" name="Diamond">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@AwardExp" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="9" uniqueName="AwardGold" name="Level">
-      <xmlColumnPr mapId="1" xpath="/XML/Object/@AwardGold" xmlDataType="integer"/>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -377,106 +297,106 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Cans" typeface="Euphemia"/>
         <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
         <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -488,165 +408,231 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:satMod val="350000"/>
+                <a:shade val="99000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -660,30 +646,30 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -698,18 +684,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -724,18 +710,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -750,15 +736,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
@@ -776,15 +762,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -802,15 +788,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -828,15 +814,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -854,15 +840,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -880,15 +866,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
@@ -906,15 +892,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
@@ -932,15 +918,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
@@ -958,15 +944,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
@@ -984,15 +970,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
@@ -1010,15 +996,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
@@ -1036,15 +1022,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
@@ -1062,15 +1048,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
@@ -1088,15 +1074,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>10</v>
@@ -1114,15 +1100,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>10</v>
@@ -1140,15 +1126,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>10</v>
@@ -1166,15 +1152,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>10</v>
@@ -1192,15 +1178,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>10</v>
@@ -1218,15 +1204,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>10</v>
@@ -1244,15 +1230,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>10</v>
@@ -1270,15 +1256,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>10</v>
@@ -1296,15 +1282,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>10</v>
@@ -1322,15 +1308,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>10</v>
@@ -1348,9 +1334,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -1375,11 +1361,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Shop.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Shop.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NF\NoahGameFrame\_Out\Server\NFDataCfg\Excel_Ini\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19560" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -44,60 +48,33 @@
     <t>Shop1</t>
   </si>
   <si>
-    <t>Build1</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>Shop2</t>
   </si>
   <si>
-    <t>Build2</t>
-  </si>
-  <si>
     <t>Shop3</t>
   </si>
   <si>
-    <t>Build3</t>
-  </si>
-  <si>
     <t>Shop4</t>
   </si>
   <si>
-    <t>Build4</t>
-  </si>
-  <si>
     <t>Shop5</t>
   </si>
   <si>
-    <t>Build5</t>
-  </si>
-  <si>
     <t>Shop6</t>
   </si>
   <si>
-    <t>Build6</t>
-  </si>
-  <si>
     <t>Shop7</t>
   </si>
   <si>
-    <t>Build7</t>
-  </si>
-  <si>
     <t>Shop8</t>
   </si>
   <si>
-    <t>Build8</t>
-  </si>
-  <si>
     <t>Shop9</t>
   </si>
   <si>
-    <t>Build9</t>
-  </si>
-  <si>
     <t>Shop10</t>
   </si>
   <si>
@@ -204,19 +181,49 @@
   </si>
   <si>
     <t>Build27</t>
+  </si>
+  <si>
+    <t>Build_Altar_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build_Arena_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build_Camp_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build_Gold_Mine_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build_Item_Hourse_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build_League_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build_Magic_Hourse_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build_Tower_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build_Town_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -225,8 +232,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -247,23 +255,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -275,14 +268,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -581,6 +579,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -613,15 +612,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
@@ -632,7 +630,7 @@
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -658,7 +656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -666,10 +664,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -684,18 +682,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -710,18 +708,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -736,18 +734,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -762,18 +760,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,18 +786,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -814,18 +812,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -840,18 +838,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -866,18 +864,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -892,18 +890,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -918,18 +916,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -944,18 +942,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -970,18 +968,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -996,18 +994,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1022,18 +1020,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1048,18 +1046,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1074,18 +1072,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1100,18 +1098,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1126,18 +1124,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1152,18 +1150,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1178,18 +1176,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1204,18 +1202,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1230,18 +1228,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1256,18 +1254,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1282,18 +1280,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1308,18 +1306,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1334,18 +1332,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1361,8 +1359,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/_Out/Server/NFDataCfg/Excel_Ini/Shop.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Shop.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="151">
   <si>
     <t>ID</t>
   </si>
@@ -217,13 +220,291 @@
   <si>
     <t>Build_Town_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop28</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Shop29</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Shop30</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Shop31</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>EQUIP_ZS_M_0_WEAPON_10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIP_ZS_M_0_WEAPON_10002</t>
+  </si>
+  <si>
+    <t>EQUIP_ZS_M_0_ARMOR_10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIP_ZS_M_0_ARMOR_10002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUIP_ZS_M_0_BOOT_10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop32</t>
+  </si>
+  <si>
+    <t>Shop33</t>
+  </si>
+  <si>
+    <t>Shop34</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Shop35</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Shop36</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Shop37</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Shop38</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Shop39</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Shop40</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Shop41</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Shop42</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Shop43</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Shop44</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Shop45</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Shop46</t>
+  </si>
+  <si>
+    <t>Shop47</t>
+  </si>
+  <si>
+    <t>Shop48</t>
+  </si>
+  <si>
+    <t>Shop49</t>
+  </si>
+  <si>
+    <t>Shop50</t>
+  </si>
+  <si>
+    <t>Shop51</t>
+  </si>
+  <si>
+    <t>Shop52</t>
+  </si>
+  <si>
+    <t>Shop53</t>
+  </si>
+  <si>
+    <t>Shop54</t>
+  </si>
+  <si>
+    <t>Shop55</t>
+  </si>
+  <si>
+    <t>Shop56</t>
+  </si>
+  <si>
+    <t>Shop57</t>
+  </si>
+  <si>
+    <t>Shop58</t>
+  </si>
+  <si>
+    <t>Gem_Maxmp_10001</t>
+  </si>
+  <si>
+    <t>Gem_HpRegen_10001</t>
+  </si>
+  <si>
+    <t>Gem_MPRegen_10001</t>
+  </si>
+  <si>
+    <t>Gem_Atk_Value_10001</t>
+  </si>
+  <si>
+    <t>Gem_Def_Value_10001</t>
+  </si>
+  <si>
+    <t>Gem_Move_Speed_10001</t>
+  </si>
+  <si>
+    <t>Gem_Atk_Speed_10001</t>
+  </si>
+  <si>
+    <t>EquipIntensify_10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gem_Maxhp_10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gem_Maxsp_10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gem_SPRegen_10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop59</t>
+  </si>
+  <si>
+    <t>Shop60</t>
+  </si>
+  <si>
+    <t>Shop61</t>
+  </si>
+  <si>
+    <t>Gold_10002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold_10003</t>
+  </si>
+  <si>
+    <t>Gold_10004</t>
+  </si>
+  <si>
+    <t>Gold_10005</t>
+  </si>
+  <si>
+    <t>Gold_10006</t>
+  </si>
+  <si>
+    <t>Diamond_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diamond_2</t>
+  </si>
+  <si>
+    <t>Diamond_3</t>
+  </si>
+  <si>
+    <t>Diamond_4</t>
+  </si>
+  <si>
+    <t>Diamond_5</t>
+  </si>
+  <si>
+    <t>Diamond_6</t>
+  </si>
+  <si>
+    <t>SP_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP_2</t>
+  </si>
+  <si>
+    <t>SP_3</t>
+  </si>
+  <si>
+    <t>SP_4</t>
+  </si>
+  <si>
+    <t>SP_5</t>
+  </si>
+  <si>
+    <t>SP_6</t>
+  </si>
+  <si>
+    <t>Gold_10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop62</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -237,6 +518,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -246,12 +534,25 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -260,19 +561,50 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -613,17 +945,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="7" width="12.75" customWidth="1"/>
@@ -713,7 +1045,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>56</v>
@@ -739,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>57</v>
@@ -765,7 +1097,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>58</v>
@@ -791,7 +1123,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>59</v>
@@ -817,7 +1149,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>60</v>
@@ -843,7 +1175,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>61</v>
@@ -869,7 +1201,7 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>62</v>
@@ -895,7 +1227,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -921,7 +1253,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>21</v>
@@ -947,7 +1279,7 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>23</v>
@@ -973,7 +1305,7 @@
         <v>24</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>25</v>
@@ -999,7 +1331,7 @@
         <v>26</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>27</v>
@@ -1025,7 +1357,7 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>29</v>
@@ -1051,7 +1383,7 @@
         <v>30</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>31</v>
@@ -1077,7 +1409,7 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>33</v>
@@ -1103,7 +1435,7 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>35</v>
@@ -1129,7 +1461,7 @@
         <v>36</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>37</v>
@@ -1155,7 +1487,7 @@
         <v>38</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>39</v>
@@ -1181,7 +1513,7 @@
         <v>40</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>41</v>
@@ -1207,7 +1539,7 @@
         <v>42</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>43</v>
@@ -1233,7 +1565,7 @@
         <v>44</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>45</v>
@@ -1259,7 +1591,7 @@
         <v>46</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>47</v>
@@ -1285,7 +1617,7 @@
         <v>48</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>49</v>
@@ -1311,7 +1643,7 @@
         <v>50</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>51</v>
@@ -1337,7 +1669,7 @@
         <v>52</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>53</v>
@@ -1356,6 +1688,916 @@
       </c>
       <c r="H28">
         <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51">
+        <v>11</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53">
+        <v>13</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54">
+        <v>14</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55">
+        <v>15</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56">
+        <v>16</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B57">
+        <v>17</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58">
+        <v>18</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59">
+        <v>19</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60">
+        <v>20</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61">
+        <v>21</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62">
+        <v>22</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63">
+        <v>23</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Shop.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Shop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19455" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -492,17 +492,31 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -513,14 +527,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,7 +587,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -559,69 +642,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -632,25 +655,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -677,7 +684,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,43 +810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,91 +828,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,29 +858,113 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -884,17 +981,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,6 +1001,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,9 +1046,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,196 +1078,194 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1208,8 +1323,7 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
-        <i val="0"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1218,10 +1332,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
+      <font/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -1569,7 +1680,7 @@
   <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1584,184 +1695,184 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:8">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="b">
+      <c r="B3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:8">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="b">
+      <c r="B4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:8">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4" t="b">
+      <c r="B5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:8">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" spans="1:8">
-      <c r="A7" s="4" t="s">
+      <c r="B6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:8">
+      <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E8">
@@ -1778,16 +1889,16 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E9">
@@ -1804,16 +1915,16 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E10">
@@ -1830,16 +1941,16 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E11">
@@ -1856,16 +1967,16 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E12">
@@ -1882,16 +1993,16 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E13">
@@ -1908,16 +2019,16 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E14">
@@ -1934,16 +2045,16 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E15">
@@ -1960,16 +2071,16 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E16">
@@ -1986,16 +2097,16 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E17">
@@ -2012,16 +2123,16 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E18">
@@ -2038,16 +2149,16 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E19">
@@ -2064,16 +2175,16 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E20">
@@ -2090,16 +2201,16 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E21">
@@ -2116,16 +2227,16 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E22">
@@ -2142,16 +2253,16 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="11" t="s">
         <v>46</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E23">
@@ -2168,16 +2279,16 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E24">
@@ -2194,16 +2305,16 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E25">
@@ -2220,16 +2331,16 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="11" t="s">
         <v>52</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E26">
@@ -2246,16 +2357,16 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E27">
@@ -2272,16 +2383,16 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="11" t="s">
         <v>56</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E28">
@@ -2298,16 +2409,16 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E29">
@@ -2324,16 +2435,16 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E30">
@@ -2350,16 +2461,16 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E31">
@@ -2376,16 +2487,16 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E32">
@@ -2402,16 +2513,16 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E33">
@@ -2428,16 +2539,16 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E34">
@@ -2454,16 +2565,16 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="11" t="s">
         <v>70</v>
       </c>
       <c r="B35">
         <v>5</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E35">
@@ -2480,16 +2591,16 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="11" t="s">
         <v>72</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="11" t="s">
         <v>74</v>
       </c>
       <c r="E36">
@@ -2506,16 +2617,16 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="11" t="s">
         <v>77</v>
       </c>
       <c r="E37">
@@ -2532,16 +2643,16 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="11" t="s">
         <v>78</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="11" t="s">
         <v>80</v>
       </c>
       <c r="E38">
@@ -2558,16 +2669,16 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="11" t="s">
         <v>81</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="11" t="s">
         <v>83</v>
       </c>
       <c r="E39">
@@ -2584,16 +2695,16 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="11" t="s">
         <v>84</v>
       </c>
       <c r="B40">
         <v>5</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="11" t="s">
         <v>85</v>
       </c>
       <c r="E40">
@@ -2610,16 +2721,16 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B41">
         <v>6</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E41">
@@ -2636,16 +2747,16 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E42">
@@ -2662,16 +2773,16 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="11" t="s">
         <v>90</v>
       </c>
       <c r="B43">
         <v>6</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E43">
@@ -2688,16 +2799,16 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B44">
         <v>6</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E44">
@@ -2714,16 +2825,16 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="11" t="s">
         <v>94</v>
       </c>
       <c r="B45">
         <v>6</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E45">
@@ -2740,16 +2851,16 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="11" t="s">
         <v>96</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E46">
@@ -2766,16 +2877,16 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="11" t="s">
         <v>98</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E47">
@@ -2792,16 +2903,16 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="11" t="s">
         <v>100</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E48">
@@ -2818,16 +2929,16 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B49">
         <v>6</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E49">
@@ -2844,16 +2955,16 @@
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="11" t="s">
         <v>104</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E50">
@@ -2870,16 +2981,16 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="11" t="s">
         <v>106</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E51">
@@ -2896,16 +3007,16 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="11" t="s">
         <v>108</v>
       </c>
       <c r="B52">
         <v>6</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E52">
@@ -2922,16 +3033,16 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="11" t="s">
         <v>110</v>
       </c>
       <c r="B53">
         <v>7</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="11" t="s">
         <v>74</v>
       </c>
       <c r="E53">
@@ -2948,16 +3059,16 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="11" t="s">
         <v>112</v>
       </c>
       <c r="B54">
         <v>8</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="11" t="s">
         <v>77</v>
       </c>
       <c r="E54">
@@ -2974,16 +3085,16 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="11" t="s">
         <v>114</v>
       </c>
       <c r="B55">
         <v>9</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="11" t="s">
         <v>80</v>
       </c>
       <c r="E55">
@@ -3000,16 +3111,16 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="11" t="s">
         <v>116</v>
       </c>
       <c r="B56">
         <v>10</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="11" t="s">
         <v>83</v>
       </c>
       <c r="E56">
@@ -3026,16 +3137,16 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="11" t="s">
         <v>118</v>
       </c>
       <c r="B57">
         <v>11</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="11" t="s">
         <v>85</v>
       </c>
       <c r="E57">
@@ -3052,16 +3163,16 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="11" t="s">
         <v>120</v>
       </c>
       <c r="B58">
         <v>12</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="11" t="s">
         <v>122</v>
       </c>
       <c r="E58">
@@ -3078,16 +3189,16 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="11" t="s">
         <v>123</v>
       </c>
       <c r="B59">
         <v>13</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="11" t="s">
         <v>125</v>
       </c>
       <c r="E59">
@@ -3104,16 +3215,16 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="11" t="s">
         <v>126</v>
       </c>
       <c r="B60">
         <v>14</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="11" t="s">
         <v>128</v>
       </c>
       <c r="E60">
@@ -3130,16 +3241,16 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="11" t="s">
         <v>129</v>
       </c>
       <c r="B61">
         <v>15</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="11" t="s">
         <v>131</v>
       </c>
       <c r="E61">
@@ -3156,16 +3267,16 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="11" t="s">
         <v>132</v>
       </c>
       <c r="B62">
         <v>16</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="11" t="s">
         <v>134</v>
       </c>
       <c r="E62">
@@ -3182,16 +3293,16 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="11" t="s">
         <v>135</v>
       </c>
       <c r="B63">
         <v>17</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="11" t="s">
         <v>137</v>
       </c>
       <c r="E63">
@@ -3208,16 +3319,16 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="11" t="s">
         <v>138</v>
       </c>
       <c r="B64">
         <v>18</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="11" t="s">
         <v>140</v>
       </c>
       <c r="E64">
@@ -3234,16 +3345,16 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="11" t="s">
         <v>141</v>
       </c>
       <c r="B65">
         <v>19</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="11" t="s">
         <v>143</v>
       </c>
       <c r="E65">
@@ -3260,16 +3371,16 @@
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B66">
         <v>20</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="11" t="s">
         <v>146</v>
       </c>
       <c r="E66">
@@ -3286,16 +3397,16 @@
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="11" t="s">
         <v>147</v>
       </c>
       <c r="B67">
         <v>21</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="11" t="s">
         <v>149</v>
       </c>
       <c r="E67">
@@ -3312,16 +3423,16 @@
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="11" t="s">
         <v>150</v>
       </c>
       <c r="B68">
         <v>22</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="11" t="s">
         <v>152</v>
       </c>
       <c r="E68">
@@ -3338,16 +3449,16 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="11" t="s">
         <v>153</v>
       </c>
       <c r="B69">
         <v>23</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="11" t="s">
         <v>155</v>
       </c>
       <c r="E69">

--- a/_Out/Server/NFDataCfg/Excel_Ini/Shop.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Shop.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,20 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="157">
   <si>
     <t>Id</t>
   </si>
@@ -493,14 +506,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -514,159 +521,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,194 +541,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -998,262 +668,20 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1301,61 +729,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1369,12 +749,17 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1706,26 +1091,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="2" max="2" width="8.25" customWidth="1"/>
-    <col min="3" max="3" width="28.25" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="7" width="12.75" customWidth="1"/>
+    <col min="6" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1751,7 +1136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:8">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1777,7 +1162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:8">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -1803,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:8">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1829,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:8">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -1855,7 +1240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:8">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1881,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:8">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
@@ -1907,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:8">
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -1919,7 +1304,7 @@
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
@@ -1945,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
         <v>19</v>
       </c>
@@ -1971,7 +1356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
         <v>21</v>
       </c>
@@ -1997,7 +1382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -2023,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
         <v>25</v>
       </c>
@@ -2049,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
         <v>27</v>
       </c>
@@ -2075,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
         <v>29</v>
       </c>
@@ -2101,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
         <v>31</v>
       </c>
@@ -2127,7 +1512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
         <v>33</v>
       </c>
@@ -2153,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
         <v>35</v>
       </c>
@@ -2179,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
         <v>37</v>
       </c>
@@ -2205,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="12" t="s">
         <v>39</v>
       </c>
@@ -2231,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
         <v>41</v>
       </c>
@@ -2257,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
         <v>43</v>
       </c>
@@ -2283,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
         <v>45</v>
       </c>
@@ -2309,7 +1694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
         <v>47</v>
       </c>
@@ -2335,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
         <v>49</v>
       </c>
@@ -2361,7 +1746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
         <v>51</v>
       </c>
@@ -2387,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="s">
         <v>53</v>
       </c>
@@ -2413,7 +1798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="s">
         <v>55</v>
       </c>
@@ -2439,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
         <v>57</v>
       </c>
@@ -2465,7 +1850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
         <v>59</v>
       </c>
@@ -2491,7 +1876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
         <v>61</v>
       </c>
@@ -2517,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
         <v>63</v>
       </c>
@@ -2543,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
         <v>65</v>
       </c>
@@ -2569,7 +1954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="12" t="s">
         <v>67</v>
       </c>
@@ -2595,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
         <v>69</v>
       </c>
@@ -2621,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="12" t="s">
         <v>71</v>
       </c>
@@ -2647,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
         <v>73</v>
       </c>
@@ -2673,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="12" t="s">
         <v>76</v>
       </c>
@@ -2699,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="12" t="s">
         <v>79</v>
       </c>
@@ -2725,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="12" t="s">
         <v>82</v>
       </c>
@@ -2751,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="12" t="s">
         <v>85</v>
       </c>
@@ -2777,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="12" t="s">
         <v>87</v>
       </c>
@@ -2803,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="12" t="s">
         <v>89</v>
       </c>
@@ -2829,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="12" t="s">
         <v>91</v>
       </c>
@@ -2855,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="12" t="s">
         <v>93</v>
       </c>
@@ -2881,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="12" t="s">
         <v>95</v>
       </c>
@@ -2907,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="12" t="s">
         <v>97</v>
       </c>
@@ -2933,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="12" t="s">
         <v>99</v>
       </c>
@@ -2959,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="12" t="s">
         <v>101</v>
       </c>
@@ -2985,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="12" t="s">
         <v>103</v>
       </c>
@@ -3011,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="12" t="s">
         <v>105</v>
       </c>
@@ -3037,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="12" t="s">
         <v>107</v>
       </c>
@@ -3063,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
         <v>109</v>
       </c>
@@ -3089,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="12" t="s">
         <v>111</v>
       </c>
@@ -3115,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="12" t="s">
         <v>113</v>
       </c>
@@ -3141,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="12" t="s">
         <v>115</v>
       </c>
@@ -3167,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="12" t="s">
         <v>117</v>
       </c>
@@ -3193,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
         <v>119</v>
       </c>
@@ -3219,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="12" t="s">
         <v>121</v>
       </c>
@@ -3245,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="12" t="s">
         <v>124</v>
       </c>
@@ -3271,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="12" t="s">
         <v>127</v>
       </c>
@@ -3297,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="12" t="s">
         <v>130</v>
       </c>
@@ -3323,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="12" t="s">
         <v>133</v>
       </c>
@@ -3349,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="12" t="s">
         <v>136</v>
       </c>
@@ -3375,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="12" t="s">
         <v>139</v>
       </c>
@@ -3401,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="12" t="s">
         <v>142</v>
       </c>
@@ -3427,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="12" t="s">
         <v>145</v>
       </c>
@@ -3453,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="12" t="s">
         <v>148</v>
       </c>
@@ -3479,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="12" t="s">
         <v>151</v>
       </c>
@@ -3505,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="12" t="s">
         <v>154</v>
       </c>
@@ -3538,7 +2923,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Shop.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Shop.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="158">
   <si>
     <t>Id</t>
   </si>
@@ -501,13 +501,17 @@
   </si>
   <si>
     <t>18</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -518,6 +522,11 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -730,7 +739,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -758,6 +767,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1092,25 +1104,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="4" max="4" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" customWidth="1"/>
+    <col min="3" max="3" width="28.1796875" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" customWidth="1"/>
+    <col min="6" max="7" width="12.6328125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1162,7 +1174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -1188,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1214,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -1240,7 +1252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1266,7 +1278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
@@ -1292,53 +1304,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="12" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>18</v>
@@ -1347,703 +1359,703 @@
         <v>5</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>200</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="12" t="s">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="D12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>3</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>300</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
+      <c r="D13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>4</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>400</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="12" t="s">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="12" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="D14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>5</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>500</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="12" t="s">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>6</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>600</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="12" t="s">
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
+      <c r="D16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>7</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>700</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="12" t="s">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
+      <c r="D17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>8</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>800</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="s">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
+      <c r="D18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
         <v>9</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>900</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="12" t="s">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="12" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
+      <c r="D19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>10</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>1000</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="12" t="s">
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
+      <c r="D20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
         <v>11</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>1100</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="12" t="s">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="12" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
+      <c r="D21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>12</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>1200</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="12" t="s">
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="12" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
+      <c r="D22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>13</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>1300</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="12" t="s">
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="12" t="s">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
+      <c r="D23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
         <v>14</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>1400</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="12" t="s">
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
+      <c r="D24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <v>15</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>1500</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="12" t="s">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="12" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
+      <c r="D25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>16</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>1600</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="12" t="s">
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
+      <c r="D26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
         <v>17</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <v>1700</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="12" t="s">
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" s="12" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>18</v>
-      </c>
-      <c r="G26">
+      <c r="D27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>18</v>
+      </c>
+      <c r="G27">
         <v>1800</v>
       </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="12" t="s">
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" s="12" t="s">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
+      <c r="D28" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
         <v>19</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <v>1900</v>
       </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="12" t="s">
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" s="12" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
+      <c r="D29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
         <v>20</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>2000</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="12" t="s">
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" s="12" t="s">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
+      <c r="D30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
         <v>21</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>2100</v>
       </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="12" t="s">
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" s="12" t="s">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
+      <c r="D31" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
         <v>22</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <v>2200</v>
       </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="12" t="s">
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" s="12" t="s">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
+      <c r="D32" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
         <v>23</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <v>2300</v>
       </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="12" t="s">
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" s="12" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
+      <c r="D33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
         <v>24</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <v>2400</v>
       </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="12" t="s">
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" s="12" t="s">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
+      <c r="D34" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
         <v>25</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <v>2500</v>
       </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="12" t="s">
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" s="12" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
+      <c r="D35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
         <v>26</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <v>2600</v>
       </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="12" t="s">
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" s="12" t="s">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
+      <c r="D36" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
         <v>27</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <v>2700</v>
       </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="12" t="s">
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="B36">
-        <v>5</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2058,18 +2070,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2084,18 +2096,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2110,18 +2122,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>5</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2136,9 +2148,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -2147,56 +2159,56 @@
         <v>83</v>
       </c>
       <c r="D41" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="12" t="s">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="B42">
-        <v>6</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="12" t="s">
-        <v>89</v>
       </c>
       <c r="B43">
         <v>6</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>90</v>
+      <c r="C43" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>18</v>
@@ -2214,15 +2226,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B44">
         <v>6</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>92</v>
+      <c r="C44" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>18</v>
@@ -2240,15 +2252,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B45">
         <v>6</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>94</v>
+      <c r="C45" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>18</v>
@@ -2266,15 +2278,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>96</v>
+      <c r="C46" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>18</v>
@@ -2292,15 +2304,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
-      <c r="C47" s="13" t="s">
-        <v>98</v>
+      <c r="C47" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>18</v>
@@ -2318,15 +2330,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>18</v>
@@ -2344,15 +2356,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B49">
         <v>6</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>18</v>
@@ -2370,15 +2382,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>18</v>
@@ -2396,15 +2408,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>18</v>
@@ -2422,15 +2434,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B52">
         <v>6</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>18</v>
@@ -2448,478 +2460,505 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B53">
         <v>6</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="12" t="s">
+      <c r="D54" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>7</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C55" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D55" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="12" t="s">
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <v>8</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C56" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D56" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="12" t="s">
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B56">
+      <c r="B57">
         <v>9</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C57" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D57" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="12" t="s">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <v>10</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D58" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="12" t="s">
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B58">
+      <c r="B59">
         <v>11</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D59" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A59" s="12" t="s">
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B59">
+      <c r="B60">
         <v>12</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C60" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D60" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A60" s="12" t="s">
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>13</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C61" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D61" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A61" s="12" t="s">
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>14</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C62" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D62" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="12" t="s">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>15</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C63" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D63" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="12" t="s">
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>16</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C64" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D64" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="12" t="s">
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>17</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C65" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D64" s="12" t="s">
+      <c r="D65" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A65" s="12" t="s">
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B65">
-        <v>18</v>
-      </c>
-      <c r="C65" s="12" t="s">
+      <c r="B66">
+        <v>18</v>
+      </c>
+      <c r="C66" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D66" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66" s="12" t="s">
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B66">
+      <c r="B67">
         <v>19</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C67" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D67" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A67" s="12" t="s">
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B67">
+      <c r="B68">
         <v>20</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C68" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D68" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="12" t="s">
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B68">
+      <c r="B69">
         <v>21</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C69" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D69" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A69" s="12" t="s">
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <v>22</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C70" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D70" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A70" s="12" t="s">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B70">
+      <c r="B71">
         <v>23</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C71" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D71" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:J7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:J8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
